--- a/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t>升级资源</t>
-  </si>
-  <si>
-    <t>升级花费（普通货币）</t>
-  </si>
-  <si>
-    <t>升级条件</t>
-  </si>
-  <si>
-    <t>升级时间（分钟）</t>
+    <t>升级资源（id|数量）</t>
+  </si>
+  <si>
+    <t>升级花费</t>
+  </si>
+  <si>
+    <t>升级条件（主船等级）</t>
+  </si>
+  <si>
+    <t>升级时间（s）</t>
   </si>
   <si>
     <t>模型资源</t>
   </si>
   <si>
-    <t>解锁制作图</t>
+    <t>解锁制作图（id）</t>
   </si>
   <si>
     <t>A</t>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,6 +115,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,7 +130,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,90 +181,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +227,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -273,19 +273,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,151 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,45 +478,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,15 +514,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -579,16 +531,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>

--- a/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
@@ -114,6 +114,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -121,8 +143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,49 +160,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -182,15 +190,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,27 +229,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,24 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,36 +498,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,17 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -579,16 +568,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1169,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:7">

--- a/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
@@ -70,16 +70,16 @@
     <t>UnlockEquipmentID</t>
   </si>
   <si>
-    <t>1001|300;1004|160</t>
-  </si>
-  <si>
-    <t>1001|500;1004|300</t>
-  </si>
-  <si>
-    <t>1001|1200;1004|800</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|2000</t>
+    <t>1001|300;1002|160</t>
+  </si>
+  <si>
+    <t>1001|500;1002|300</t>
+  </si>
+  <si>
+    <t>1001|1200;1002|800</t>
+  </si>
+  <si>
+    <t>1001|2000;1002|2000</t>
   </si>
 </sst>
 </file>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -114,6 +114,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -122,32 +129,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,37 +157,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,38 +168,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -245,14 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,12 +273,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,169 +405,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,39 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -563,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +570,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>101</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>102</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>103</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>104</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>1001|300;1002|160</t>
+  </si>
+  <si>
+    <t>ABC_A</t>
   </si>
   <si>
     <t>1001|500;1002|300</t>
@@ -87,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,14 +118,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,7 +170,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,37 +232,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,75 +256,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,17 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,8 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +524,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,21 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -560,22 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1092,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1211,6 +1214,9 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="2">
         <v>1001</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1230,6 +1236,9 @@
       </c>
       <c r="E6" s="2">
         <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <v>1002</v>
@@ -1240,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1250,6 +1259,9 @@
       </c>
       <c r="E7" s="2">
         <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="2">
         <v>1003</v>
@@ -1260,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1270,6 +1282,9 @@
       </c>
       <c r="E8" s="2">
         <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="2">
         <v>1004</v>

--- a/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>模型资源</t>
   </si>
   <si>
-    <t>解锁制作图（id）</t>
+    <t>解锁制作图（id；id）</t>
   </si>
   <si>
     <t>A</t>
@@ -76,13 +76,25 @@
     <t>ABC_A</t>
   </si>
   <si>
+    <t>100101;100201;100301</t>
+  </si>
+  <si>
     <t>1001|500;1002|300</t>
   </si>
   <si>
+    <t>100401;100501;100601</t>
+  </si>
+  <si>
     <t>1001|1200;1002|800</t>
   </si>
   <si>
+    <t>100701;100801;100901</t>
+  </si>
+  <si>
     <t>1001|2000;1002|2000</t>
+  </si>
+  <si>
+    <t>101001;101101;101201</t>
   </si>
 </sst>
 </file>
@@ -90,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -117,6 +129,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,67 +167,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,63 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,121 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,61 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,15 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -520,41 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,16 +550,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1104,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1172,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
@@ -1212,13 +1224,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2">
-        <v>1001</v>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1226,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1235,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2">
-        <v>1002</v>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1249,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1258,13 +1270,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2">
-        <v>1003</v>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1272,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1281,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2">
-        <v>1004</v>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>升级条件（主船等级）</t>
   </si>
   <si>
-    <t>升级时间（s）</t>
-  </si>
-  <si>
     <t>模型资源</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>UpgradePreconditions</t>
-  </si>
-  <si>
-    <t>UpgradeTime</t>
   </si>
   <si>
     <t>ModelResources</t>
@@ -103,8 +97,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -129,6 +123,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -137,83 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,22 +215,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -259,15 +229,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,13 +282,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,169 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +491,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,11 +515,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,26 +569,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,25 +588,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,26 +1093,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.3796296296296" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.8148148148148" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.8148148148148" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.3796296296296" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,85 +1131,73 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>2500</v>
@@ -1223,22 +1205,19 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1246,22 +1225,19 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>61</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1269,22 +1245,19 @@
       <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
-        <v>62</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1292,14 +1265,11 @@
       <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
-        <v>63</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
